--- a/data/IRIS KeyCodes - Bank.xlsx
+++ b/data/IRIS KeyCodes - Bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duynguyen/Library/CloudStorage/GoogleDrive-nkduy96@gmail.com/My Drive/Python/Project Banking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Python\Project Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C125F5-E4EC-4D4E-81DE-7F7FFE09D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E61974A-53BE-489D-9D60-E96C7C36B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3240" windowWidth="24740" windowHeight="15340" xr2:uid="{29A721B8-5450-4364-9338-BC611864A8C4}"/>
+    <workbookView xWindow="9435" yWindow="3450" windowWidth="34965" windowHeight="15345" xr2:uid="{29A721B8-5450-4364-9338-BC611864A8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bank" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1465">
   <si>
     <t>KeyCode</t>
   </si>
@@ -4270,9 +4270,6 @@
   </si>
   <si>
     <t>CA.10</t>
-  </si>
-  <si>
-    <t>CA.11</t>
   </si>
   <si>
     <t>CA.12</t>
@@ -4523,7 +4520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4538,6 +4535,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4873,23 +4871,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D922F1-BBBA-4C34-8984-F82774911401}">
-  <dimension ref="A1:F596"/>
+  <dimension ref="A1:F595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C588" sqref="C588"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N524" sqref="N524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4906,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4926,7 +4924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4943,7 +4941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4977,7 +4975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4994,7 +4992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5096,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5130,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5164,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5232,7 +5230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5266,7 +5264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5283,7 +5281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -5300,7 +5298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -5334,7 +5332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5368,7 +5366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5385,7 +5383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5402,7 +5400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5436,7 +5434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5453,7 +5451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5470,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -5487,7 +5485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -5504,7 +5502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>499</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>501</v>
       </c>
@@ -5538,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>503</v>
       </c>
@@ -5555,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>505</v>
       </c>
@@ -5572,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>512</v>
       </c>
@@ -5623,7 +5621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>514</v>
       </c>
@@ -5640,7 +5638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>517</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>520</v>
       </c>
@@ -5674,7 +5672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>523</v>
       </c>
@@ -5691,7 +5689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>526</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>528</v>
       </c>
@@ -5725,7 +5723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>530</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>533</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>536</v>
       </c>
@@ -5776,7 +5774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>538</v>
       </c>
@@ -5793,7 +5791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>540</v>
       </c>
@@ -5810,7 +5808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>542</v>
       </c>
@@ -5827,7 +5825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -5844,7 +5842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>547</v>
       </c>
@@ -5861,7 +5859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>549</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>550</v>
       </c>
@@ -5895,7 +5893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>553</v>
       </c>
@@ -5912,7 +5910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>555</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>557</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>560</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>562</v>
       </c>
@@ -5980,7 +5978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>564</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -6014,7 +6012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>568</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -6048,7 +6046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>572</v>
       </c>
@@ -6065,7 +6063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>574</v>
       </c>
@@ -6082,7 +6080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>576</v>
       </c>
@@ -6099,7 +6097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>581</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6150,7 +6148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>585</v>
       </c>
@@ -6167,7 +6165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>587</v>
       </c>
@@ -6184,7 +6182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>589</v>
       </c>
@@ -6201,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>590</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>592</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>594</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>596</v>
       </c>
@@ -6269,7 +6267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>598</v>
       </c>
@@ -6286,7 +6284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>600</v>
       </c>
@@ -6303,7 +6301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>603</v>
       </c>
@@ -6320,7 +6318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -6354,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -6371,7 +6369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>607</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -6405,7 +6403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6422,7 +6420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -6439,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6473,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -6490,7 +6488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -6524,7 +6522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -6541,7 +6539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>613</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>615</v>
       </c>
@@ -6575,7 +6573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>617</v>
       </c>
@@ -6592,7 +6590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>619</v>
       </c>
@@ -6609,7 +6607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>621</v>
       </c>
@@ -6626,7 +6624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>623</v>
       </c>
@@ -6643,7 +6641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>625</v>
       </c>
@@ -6660,7 +6658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>627</v>
       </c>
@@ -6677,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>629</v>
       </c>
@@ -6694,7 +6692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>631</v>
       </c>
@@ -6711,7 +6709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -6746,7 +6744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6763,7 +6761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -6814,7 +6812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>105</v>
       </c>
@@ -6831,7 +6829,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>632</v>
       </c>
@@ -6899,7 +6897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>635</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -6933,7 +6931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -6950,7 +6948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -6967,7 +6965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -6984,7 +6982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -7001,7 +6999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -7035,7 +7033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7086,7 +7084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -7120,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>172</v>
       </c>
@@ -7137,7 +7135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -7154,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -7188,7 +7186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -7239,7 +7237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -7290,7 +7288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -7307,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -7375,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -7443,7 +7441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -7460,7 +7458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -7545,7 +7543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -7579,7 +7577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -7613,7 +7611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>639</v>
       </c>
@@ -7630,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>642</v>
       </c>
@@ -7647,7 +7645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>645</v>
       </c>
@@ -7664,7 +7662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>648</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>651</v>
       </c>
@@ -7699,7 +7697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>653</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>655</v>
       </c>
@@ -7735,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>657</v>
       </c>
@@ -7752,7 +7750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -7769,7 +7767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -7786,7 +7784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>661</v>
       </c>
@@ -7803,7 +7801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>663</v>
       </c>
@@ -7820,7 +7818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -7837,7 +7835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>666</v>
       </c>
@@ -7854,7 +7852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7888,7 +7886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>673</v>
       </c>
@@ -7905,7 +7903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>676</v>
       </c>
@@ -7922,7 +7920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>678</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>680</v>
       </c>
@@ -7958,7 +7956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -7975,7 +7973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -7992,7 +7990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -8010,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -8028,7 +8026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -8045,7 +8043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -8062,7 +8060,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -8079,7 +8077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -8096,7 +8094,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>52</v>
       </c>
@@ -8130,7 +8128,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -8147,7 +8145,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -8198,7 +8196,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -8215,7 +8213,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -8266,7 +8264,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -8300,7 +8298,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -8317,7 +8315,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -8334,7 +8332,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>54</v>
       </c>
@@ -8351,7 +8349,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -8368,7 +8366,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -8419,7 +8417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -8470,7 +8468,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -8487,7 +8485,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>56</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -8555,7 +8553,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -8606,7 +8604,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -8623,7 +8621,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -8640,7 +8638,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -8657,7 +8655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -8691,7 +8689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -8708,7 +8706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -8742,7 +8740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -8759,7 +8757,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>59</v>
       </c>
@@ -8776,7 +8774,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -8793,7 +8791,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -8810,7 +8808,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -8827,7 +8825,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>60</v>
       </c>
@@ -8844,7 +8842,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8861,7 +8859,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -8929,7 +8927,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -8946,7 +8944,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>256</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>258</v>
       </c>
@@ -8980,7 +8978,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>260</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -9014,7 +9012,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -9031,7 +9029,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -9082,7 +9080,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -9099,7 +9097,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -9116,7 +9114,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>63</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>65</v>
       </c>
@@ -9167,7 +9165,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>66</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>67</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>273</v>
       </c>
@@ -9218,7 +9216,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>274</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>275</v>
       </c>
@@ -9252,7 +9250,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>276</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>277</v>
       </c>
@@ -9286,7 +9284,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>278</v>
       </c>
@@ -9303,7 +9301,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>279</v>
       </c>
@@ -9320,7 +9318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>280</v>
       </c>
@@ -9337,7 +9335,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>68</v>
       </c>
@@ -9354,7 +9352,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>281</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>282</v>
       </c>
@@ -9388,7 +9386,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>283</v>
       </c>
@@ -9405,7 +9403,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>284</v>
       </c>
@@ -9422,7 +9420,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>69</v>
       </c>
@@ -9439,7 +9437,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>285</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>286</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>287</v>
       </c>
@@ -9490,7 +9488,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>288</v>
       </c>
@@ -9507,7 +9505,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>289</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>290</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>291</v>
       </c>
@@ -9558,7 +9556,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>70</v>
       </c>
@@ -9575,7 +9573,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>292</v>
       </c>
@@ -9592,7 +9590,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>294</v>
       </c>
@@ -9626,7 +9624,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>295</v>
       </c>
@@ -9643,7 +9641,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>296</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>297</v>
       </c>
@@ -9677,7 +9675,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>72</v>
       </c>
@@ -9694,7 +9692,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>299</v>
       </c>
@@ -9711,7 +9709,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>300</v>
       </c>
@@ -9728,7 +9726,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>313</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>314</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>77</v>
       </c>
@@ -9779,7 +9777,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -9796,7 +9794,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>79</v>
       </c>
@@ -9813,7 +9811,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>83</v>
       </c>
@@ -9830,7 +9828,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>84</v>
       </c>
@@ -9847,7 +9845,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>85</v>
       </c>
@@ -9864,7 +9862,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>315</v>
       </c>
@@ -9881,7 +9879,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>80</v>
       </c>
@@ -9898,7 +9896,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>81</v>
       </c>
@@ -9915,7 +9913,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>316</v>
       </c>
@@ -9932,7 +9930,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>317</v>
       </c>
@@ -9949,7 +9947,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>319</v>
       </c>
@@ -9966,7 +9964,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>86</v>
       </c>
@@ -9983,7 +9981,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>321</v>
       </c>
@@ -10000,7 +9998,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>88</v>
       </c>
@@ -10017,7 +10015,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>323</v>
       </c>
@@ -10034,7 +10032,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>326</v>
       </c>
@@ -10051,7 +10049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -10068,7 +10066,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>92</v>
       </c>
@@ -10085,7 +10083,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>94</v>
       </c>
@@ -10102,7 +10100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>96</v>
       </c>
@@ -10119,7 +10117,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -10136,7 +10134,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>336</v>
       </c>
@@ -10153,7 +10151,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -10170,7 +10168,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -10187,7 +10185,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>341</v>
       </c>
@@ -10204,7 +10202,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>342</v>
       </c>
@@ -10221,7 +10219,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -10238,7 +10236,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -10255,7 +10253,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>345</v>
       </c>
@@ -10272,7 +10270,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>346</v>
       </c>
@@ -10289,7 +10287,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>347</v>
       </c>
@@ -10306,7 +10304,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -10323,7 +10321,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>349</v>
       </c>
@@ -10340,7 +10338,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>350</v>
       </c>
@@ -10357,7 +10355,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>351</v>
       </c>
@@ -10374,7 +10372,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>352</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>353</v>
       </c>
@@ -10408,7 +10406,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>354</v>
       </c>
@@ -10425,7 +10423,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -10442,7 +10440,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -10459,7 +10457,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -10476,7 +10474,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>358</v>
       </c>
@@ -10493,7 +10491,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -10510,7 +10508,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -10527,7 +10525,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>361</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>362</v>
       </c>
@@ -10561,7 +10559,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>363</v>
       </c>
@@ -10578,7 +10576,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>364</v>
       </c>
@@ -10595,7 +10593,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>365</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>366</v>
       </c>
@@ -10629,7 +10627,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>367</v>
       </c>
@@ -10646,7 +10644,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>368</v>
       </c>
@@ -10663,7 +10661,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>369</v>
       </c>
@@ -10680,7 +10678,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>370</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>371</v>
       </c>
@@ -10714,7 +10712,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>372</v>
       </c>
@@ -10731,7 +10729,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>373</v>
       </c>
@@ -10748,7 +10746,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>374</v>
       </c>
@@ -10765,7 +10763,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>375</v>
       </c>
@@ -10782,7 +10780,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>377</v>
       </c>
@@ -10799,7 +10797,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>378</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>379</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>380</v>
       </c>
@@ -10850,7 +10848,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>381</v>
       </c>
@@ -10867,7 +10865,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>382</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>383</v>
       </c>
@@ -10901,7 +10899,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>384</v>
       </c>
@@ -10918,7 +10916,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>385</v>
       </c>
@@ -10935,7 +10933,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>386</v>
       </c>
@@ -10952,7 +10950,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>387</v>
       </c>
@@ -10969,7 +10967,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -10986,7 +10984,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>389</v>
       </c>
@@ -11003,7 +11001,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>390</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>391</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -11071,7 +11069,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -11105,7 +11103,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -11122,7 +11120,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>455</v>
       </c>
@@ -11139,7 +11137,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>398</v>
       </c>
@@ -11173,7 +11171,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>399</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>400</v>
       </c>
@@ -11207,7 +11205,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -11224,7 +11222,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>402</v>
       </c>
@@ -11241,7 +11239,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>403</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>404</v>
       </c>
@@ -11275,7 +11273,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>405</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>406</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>407</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -11343,7 +11341,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>409</v>
       </c>
@@ -11360,7 +11358,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>410</v>
       </c>
@@ -11377,7 +11375,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>411</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>412</v>
       </c>
@@ -11411,7 +11409,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>413</v>
       </c>
@@ -11428,7 +11426,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>414</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>415</v>
       </c>
@@ -11462,7 +11460,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>416</v>
       </c>
@@ -11479,7 +11477,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>417</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>418</v>
       </c>
@@ -11513,7 +11511,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>419</v>
       </c>
@@ -11530,7 +11528,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>420</v>
       </c>
@@ -11547,7 +11545,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>421</v>
       </c>
@@ -11564,7 +11562,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>422</v>
       </c>
@@ -11581,7 +11579,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>423</v>
       </c>
@@ -11598,7 +11596,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>424</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>425</v>
       </c>
@@ -11632,7 +11630,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>426</v>
       </c>
@@ -11649,7 +11647,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>427</v>
       </c>
@@ -11666,7 +11664,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>428</v>
       </c>
@@ -11683,7 +11681,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>429</v>
       </c>
@@ -11700,7 +11698,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>430</v>
       </c>
@@ -11717,7 +11715,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>431</v>
       </c>
@@ -11734,7 +11732,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>432</v>
       </c>
@@ -11751,7 +11749,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>433</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>434</v>
       </c>
@@ -11785,7 +11783,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>435</v>
       </c>
@@ -11802,7 +11800,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>436</v>
       </c>
@@ -11819,7 +11817,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>437</v>
       </c>
@@ -11836,7 +11834,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>438</v>
       </c>
@@ -11853,7 +11851,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>439</v>
       </c>
@@ -11870,7 +11868,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>440</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>441</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>442</v>
       </c>
@@ -11921,7 +11919,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>443</v>
       </c>
@@ -11938,7 +11936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>444</v>
       </c>
@@ -11955,7 +11953,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>445</v>
       </c>
@@ -11972,7 +11970,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>446</v>
       </c>
@@ -11989,7 +11987,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>447</v>
       </c>
@@ -12006,7 +12004,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>448</v>
       </c>
@@ -12023,7 +12021,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>449</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>450</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>451</v>
       </c>
@@ -12074,7 +12072,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>452</v>
       </c>
@@ -12091,7 +12089,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>453</v>
       </c>
@@ -12108,7 +12106,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>454</v>
       </c>
@@ -12125,7 +12123,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>456</v>
       </c>
@@ -12142,7 +12140,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>457</v>
       </c>
@@ -12159,7 +12157,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>458</v>
       </c>
@@ -12176,7 +12174,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>459</v>
       </c>
@@ -12193,7 +12191,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>460</v>
       </c>
@@ -12210,7 +12208,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>461</v>
       </c>
@@ -12227,7 +12225,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>462</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>463</v>
       </c>
@@ -12261,7 +12259,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>464</v>
       </c>
@@ -12278,7 +12276,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>465</v>
       </c>
@@ -12295,7 +12293,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>466</v>
       </c>
@@ -12312,7 +12310,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>467</v>
       </c>
@@ -12329,7 +12327,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>468</v>
       </c>
@@ -12346,7 +12344,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>469</v>
       </c>
@@ -12363,7 +12361,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>470</v>
       </c>
@@ -12380,7 +12378,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>471</v>
       </c>
@@ -12397,7 +12395,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>472</v>
       </c>
@@ -12414,7 +12412,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>473</v>
       </c>
@@ -12431,7 +12429,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>474</v>
       </c>
@@ -12448,7 +12446,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>475</v>
       </c>
@@ -12465,7 +12463,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>476</v>
       </c>
@@ -12482,7 +12480,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>477</v>
       </c>
@@ -12499,7 +12497,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>478</v>
       </c>
@@ -12516,7 +12514,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>479</v>
       </c>
@@ -12533,7 +12531,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>480</v>
       </c>
@@ -12550,7 +12548,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>481</v>
       </c>
@@ -12567,7 +12565,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>482</v>
       </c>
@@ -12584,7 +12582,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>483</v>
       </c>
@@ -12601,7 +12599,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>484</v>
       </c>
@@ -12618,7 +12616,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>485</v>
       </c>
@@ -12635,7 +12633,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>486</v>
       </c>
@@ -12652,7 +12650,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>487</v>
       </c>
@@ -12669,7 +12667,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>488</v>
       </c>
@@ -12686,7 +12684,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>489</v>
       </c>
@@ -12703,7 +12701,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>490</v>
       </c>
@@ -12720,7 +12718,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>491</v>
       </c>
@@ -12737,7 +12735,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>492</v>
       </c>
@@ -12754,7 +12752,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>493</v>
       </c>
@@ -12771,7 +12769,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>494</v>
       </c>
@@ -12788,7 +12786,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>495</v>
       </c>
@@ -12805,7 +12803,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>496</v>
       </c>
@@ -12822,7 +12820,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1153</v>
       </c>
@@ -12839,7 +12837,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1156</v>
       </c>
@@ -12856,7 +12854,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1159</v>
       </c>
@@ -12873,7 +12871,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1162</v>
       </c>
@@ -12890,7 +12888,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1165</v>
       </c>
@@ -12907,7 +12905,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1168</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1171</v>
       </c>
@@ -12941,7 +12939,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1174</v>
       </c>
@@ -12958,7 +12956,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1177</v>
       </c>
@@ -12975,7 +12973,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1180</v>
       </c>
@@ -12992,7 +12990,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1183</v>
       </c>
@@ -13009,7 +13007,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1186</v>
       </c>
@@ -13026,7 +13024,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1189</v>
       </c>
@@ -13043,7 +13041,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1192</v>
       </c>
@@ -13060,7 +13058,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1195</v>
       </c>
@@ -13077,7 +13075,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1198</v>
       </c>
@@ -13094,7 +13092,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1201</v>
       </c>
@@ -13111,7 +13109,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1204</v>
       </c>
@@ -13128,7 +13126,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1207</v>
       </c>
@@ -13145,7 +13143,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1210</v>
       </c>
@@ -13162,7 +13160,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1213</v>
       </c>
@@ -13179,7 +13177,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1216</v>
       </c>
@@ -13196,7 +13194,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1219</v>
       </c>
@@ -13213,7 +13211,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1222</v>
       </c>
@@ -13230,7 +13228,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1225</v>
       </c>
@@ -13247,7 +13245,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1228</v>
       </c>
@@ -13264,7 +13262,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1231</v>
       </c>
@@ -13281,7 +13279,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1234</v>
       </c>
@@ -13298,7 +13296,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1237</v>
       </c>
@@ -13315,7 +13313,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1240</v>
       </c>
@@ -13332,7 +13330,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1243</v>
       </c>
@@ -13349,7 +13347,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1246</v>
       </c>
@@ -13366,7 +13364,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1249</v>
       </c>
@@ -13383,7 +13381,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1252</v>
       </c>
@@ -13400,7 +13398,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1255</v>
       </c>
@@ -13417,7 +13415,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1258</v>
       </c>
@@ -13434,7 +13432,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1261</v>
       </c>
@@ -13451,7 +13449,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1264</v>
       </c>
@@ -13468,7 +13466,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1267</v>
       </c>
@@ -13485,7 +13483,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1269</v>
       </c>
@@ -13502,7 +13500,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1272</v>
       </c>
@@ -13519,7 +13517,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1275</v>
       </c>
@@ -13536,7 +13534,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1278</v>
       </c>
@@ -13553,7 +13551,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1281</v>
       </c>
@@ -13570,7 +13568,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1284</v>
       </c>
@@ -13587,7 +13585,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1287</v>
       </c>
@@ -13604,7 +13602,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1290</v>
       </c>
@@ -13621,7 +13619,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1293</v>
       </c>
@@ -13638,7 +13636,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1296</v>
       </c>
@@ -13655,7 +13653,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1299</v>
       </c>
@@ -13672,7 +13670,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1302</v>
       </c>
@@ -13689,7 +13687,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1305</v>
       </c>
@@ -13706,7 +13704,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1308</v>
       </c>
@@ -13723,7 +13721,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1311</v>
       </c>
@@ -13740,7 +13738,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1314</v>
       </c>
@@ -13757,7 +13755,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1317</v>
       </c>
@@ -13774,7 +13772,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1320</v>
       </c>
@@ -13791,7 +13789,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1323</v>
       </c>
@@ -13808,7 +13806,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1326</v>
       </c>
@@ -13825,7 +13823,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1329</v>
       </c>
@@ -13842,7 +13840,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1332</v>
       </c>
@@ -13859,7 +13857,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1335</v>
       </c>
@@ -13876,27 +13874,27 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B529" t="s">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B529" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C529" t="s">
-        <v>7</v>
-      </c>
-      <c r="D529" t="s">
-        <v>7</v>
-      </c>
-      <c r="E529" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C529" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E529" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>1394</v>
       </c>
@@ -13910,13 +13908,13 @@
         <v>7</v>
       </c>
       <c r="E530" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>1395</v>
       </c>
@@ -13930,13 +13928,13 @@
         <v>7</v>
       </c>
       <c r="E531" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>1396</v>
       </c>
@@ -13950,13 +13948,13 @@
         <v>7</v>
       </c>
       <c r="E532" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>1397</v>
       </c>
@@ -13970,13 +13968,13 @@
         <v>7</v>
       </c>
       <c r="E533" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>1398</v>
       </c>
@@ -13990,13 +13988,13 @@
         <v>7</v>
       </c>
       <c r="E534" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>1399</v>
       </c>
@@ -14010,13 +14008,13 @@
         <v>7</v>
       </c>
       <c r="E535" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>1400</v>
       </c>
@@ -14030,13 +14028,13 @@
         <v>7</v>
       </c>
       <c r="E536" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>1401</v>
       </c>
@@ -14050,13 +14048,13 @@
         <v>7</v>
       </c>
       <c r="E537" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>1402</v>
       </c>
@@ -14070,13 +14068,13 @@
         <v>7</v>
       </c>
       <c r="E538" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>1403</v>
       </c>
@@ -14090,18 +14088,18 @@
         <v>7</v>
       </c>
       <c r="E539" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="B540" s="3" t="s">
-        <v>636</v>
+      <c r="B540" s="2" t="s">
+        <v>1346</v>
       </c>
       <c r="C540" t="s">
         <v>7</v>
@@ -14110,18 +14108,18 @@
         <v>7</v>
       </c>
       <c r="E540" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>1405</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C541" t="s">
         <v>7</v>
@@ -14130,18 +14128,18 @@
         <v>7</v>
       </c>
       <c r="E541" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>1406</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C542" t="s">
         <v>7</v>
@@ -14150,18 +14148,18 @@
         <v>7</v>
       </c>
       <c r="E542" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>1407</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C543" t="s">
         <v>7</v>
@@ -14170,18 +14168,18 @@
         <v>7</v>
       </c>
       <c r="E543" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>1408</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1349</v>
+        <v>633</v>
       </c>
       <c r="C544" t="s">
         <v>7</v>
@@ -14190,18 +14188,18 @@
         <v>7</v>
       </c>
       <c r="E544" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>1409</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>633</v>
+        <v>1350</v>
       </c>
       <c r="C545" t="s">
         <v>7</v>
@@ -14210,18 +14208,18 @@
         <v>7</v>
       </c>
       <c r="E545" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>1410</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C546" t="s">
         <v>7</v>
@@ -14230,18 +14228,18 @@
         <v>7</v>
       </c>
       <c r="E546" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>1411</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C547" t="s">
         <v>7</v>
@@ -14250,18 +14248,18 @@
         <v>7</v>
       </c>
       <c r="E547" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>1412</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C548" t="s">
         <v>7</v>
@@ -14270,18 +14268,18 @@
         <v>7</v>
       </c>
       <c r="E548" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>1413</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C549" t="s">
         <v>7</v>
@@ -14290,18 +14288,18 @@
         <v>7</v>
       </c>
       <c r="E549" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>1414</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C550" t="s">
         <v>7</v>
@@ -14310,18 +14308,18 @@
         <v>7</v>
       </c>
       <c r="E550" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>1415</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C551" t="s">
         <v>7</v>
@@ -14330,18 +14328,18 @@
         <v>7</v>
       </c>
       <c r="E551" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>1416</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C552" t="s">
         <v>7</v>
@@ -14350,18 +14348,18 @@
         <v>7</v>
       </c>
       <c r="E552" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>1417</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C553" t="s">
         <v>7</v>
@@ -14370,18 +14368,18 @@
         <v>7</v>
       </c>
       <c r="E553" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>1418</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C554" t="s">
         <v>7</v>
@@ -14390,18 +14388,18 @@
         <v>7</v>
       </c>
       <c r="E554" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>1419</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1359</v>
+        <v>666</v>
       </c>
       <c r="C555" t="s">
         <v>7</v>
@@ -14410,18 +14408,18 @@
         <v>7</v>
       </c>
       <c r="E555" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>1420</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>666</v>
+        <v>1360</v>
       </c>
       <c r="C556" t="s">
         <v>7</v>
@@ -14430,18 +14428,18 @@
         <v>7</v>
       </c>
       <c r="E556" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>1421</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C557" t="s">
         <v>7</v>
@@ -14450,18 +14448,18 @@
         <v>7</v>
       </c>
       <c r="E557" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>1422</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C558" t="s">
         <v>7</v>
@@ -14470,18 +14468,18 @@
         <v>7</v>
       </c>
       <c r="E558" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="B559" s="2" t="s">
-        <v>1362</v>
+      <c r="B559" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="C559" t="s">
         <v>7</v>
@@ -14490,18 +14488,18 @@
         <v>7</v>
       </c>
       <c r="E559" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F559" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1460</v>
+      </c>
+      <c r="F559" s="4" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="B560" s="4" t="s">
-        <v>1363</v>
+      <c r="B560" s="2" t="s">
+        <v>1364</v>
       </c>
       <c r="C560" t="s">
         <v>7</v>
@@ -14510,18 +14508,18 @@
         <v>7</v>
       </c>
       <c r="E560" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F560" s="4" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1460</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>1425</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1364</v>
+        <v>524</v>
       </c>
       <c r="C561" t="s">
         <v>7</v>
@@ -14530,18 +14528,19 @@
         <v>7</v>
       </c>
       <c r="E561" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="B562" s="2" t="s">
-        <v>524</v>
+      <c r="B562" s="2" t="str">
+        <f>"Avg " &amp;B561</f>
+        <v>Avg Customer loan</v>
       </c>
       <c r="C562" t="s">
         <v>7</v>
@@ -14550,19 +14549,18 @@
         <v>7</v>
       </c>
       <c r="E562" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B563" s="2" t="str">
-        <f>"Avg " &amp;B562</f>
-        <v>Avg Customer loan</v>
+      <c r="B563" s="2" t="s">
+        <v>1365</v>
       </c>
       <c r="C563" t="s">
         <v>7</v>
@@ -14571,18 +14569,18 @@
         <v>7</v>
       </c>
       <c r="E563" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>1428</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C564" t="s">
         <v>7</v>
@@ -14591,18 +14589,19 @@
         <v>7</v>
       </c>
       <c r="E564" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>1429</v>
       </c>
-      <c r="B565" s="2" t="s">
-        <v>1366</v>
+      <c r="B565" s="2" t="str">
+        <f>"Avg " &amp;B564</f>
+        <v>Avg Total bond</v>
       </c>
       <c r="C565" t="s">
         <v>7</v>
@@ -14611,19 +14610,18 @@
         <v>7</v>
       </c>
       <c r="E565" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="B566" s="2" t="str">
-        <f>"Avg " &amp;B565</f>
-        <v>Avg Total bond</v>
+      <c r="B566" s="2" t="s">
+        <v>1367</v>
       </c>
       <c r="C566" t="s">
         <v>7</v>
@@ -14632,18 +14630,18 @@
         <v>7</v>
       </c>
       <c r="E566" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C567" t="s">
         <v>7</v>
@@ -14652,18 +14650,19 @@
         <v>7</v>
       </c>
       <c r="E567" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F567" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="B568" s="2" t="s">
-        <v>1368</v>
+      <c r="B568" s="2" t="str">
+        <f>"Avg " &amp;B567</f>
+        <v>Avg Total deposit on asset</v>
       </c>
       <c r="C568" t="s">
         <v>7</v>
@@ -14672,19 +14671,18 @@
         <v>7</v>
       </c>
       <c r="E568" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>1433</v>
       </c>
-      <c r="B569" s="2" t="str">
-        <f>"Avg " &amp;B568</f>
-        <v>Avg Total deposit on asset</v>
+      <c r="B569" s="2" t="s">
+        <v>1369</v>
       </c>
       <c r="C569" t="s">
         <v>7</v>
@@ -14693,18 +14691,18 @@
         <v>7</v>
       </c>
       <c r="E569" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>1434</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C570" t="s">
         <v>7</v>
@@ -14713,18 +14711,19 @@
         <v>7</v>
       </c>
       <c r="E570" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>1435</v>
       </c>
-      <c r="B571" s="2" t="s">
-        <v>1370</v>
+      <c r="B571" s="2" t="str">
+        <f>"Avg " &amp;B570</f>
+        <v>Avg Total deposit</v>
       </c>
       <c r="C571" t="s">
         <v>7</v>
@@ -14733,19 +14732,18 @@
         <v>7</v>
       </c>
       <c r="E571" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="B572" s="2" t="str">
-        <f>"Avg " &amp;B571</f>
-        <v>Avg Total deposit</v>
+      <c r="B572" s="2" t="s">
+        <v>1371</v>
       </c>
       <c r="C572" t="s">
         <v>7</v>
@@ -14754,18 +14752,18 @@
         <v>7</v>
       </c>
       <c r="E572" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>1437</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C573" t="s">
         <v>7</v>
@@ -14774,18 +14772,19 @@
         <v>7</v>
       </c>
       <c r="E573" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="B574" s="2" t="s">
-        <v>1372</v>
+      <c r="B574" s="2" t="str">
+        <f>"Avg " &amp;B573</f>
+        <v>Avg Total loan on liabilities</v>
       </c>
       <c r="C574" t="s">
         <v>7</v>
@@ -14794,19 +14793,18 @@
         <v>7</v>
       </c>
       <c r="E574" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>1439</v>
       </c>
-      <c r="B575" s="2" t="str">
-        <f>"Avg " &amp;B574</f>
-        <v>Avg Total loan on liabilities</v>
+      <c r="B575" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="C575" t="s">
         <v>7</v>
@@ -14815,18 +14813,18 @@
         <v>7</v>
       </c>
       <c r="E575" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C576" t="s">
         <v>7</v>
@@ -14835,18 +14833,18 @@
         <v>7</v>
       </c>
       <c r="E576" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>1441</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C577" t="s">
         <v>7</v>
@@ -14855,18 +14853,18 @@
         <v>7</v>
       </c>
       <c r="E577" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>1442</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C578" t="s">
         <v>7</v>
@@ -14875,18 +14873,18 @@
         <v>7</v>
       </c>
       <c r="E578" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>1443</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C579" t="s">
         <v>7</v>
@@ -14895,18 +14893,18 @@
         <v>7</v>
       </c>
       <c r="E579" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>1444</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C580" t="s">
         <v>7</v>
@@ -14915,18 +14913,18 @@
         <v>7</v>
       </c>
       <c r="E580" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>1445</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C581" t="s">
         <v>7</v>
@@ -14935,18 +14933,18 @@
         <v>7</v>
       </c>
       <c r="E581" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>1446</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C582" t="s">
         <v>7</v>
@@ -14955,18 +14953,18 @@
         <v>7</v>
       </c>
       <c r="E582" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>1447</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C583" t="s">
         <v>7</v>
@@ -14975,18 +14973,18 @@
         <v>7</v>
       </c>
       <c r="E583" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
         <v>1448</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C584" t="s">
         <v>7</v>
@@ -14995,18 +14993,18 @@
         <v>7</v>
       </c>
       <c r="E584" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>1449</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C585" t="s">
         <v>7</v>
@@ -15015,18 +15013,18 @@
         <v>7</v>
       </c>
       <c r="E585" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>1450</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C586" t="s">
         <v>7</v>
@@ -15035,18 +15033,18 @@
         <v>7</v>
       </c>
       <c r="E586" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>1451</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C587" t="s">
         <v>7</v>
@@ -15055,18 +15053,18 @@
         <v>7</v>
       </c>
       <c r="E587" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
         <v>1452</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C588" t="s">
         <v>7</v>
@@ -15075,18 +15073,18 @@
         <v>7</v>
       </c>
       <c r="E588" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>1453</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C589" t="s">
         <v>7</v>
@@ -15095,18 +15093,18 @@
         <v>7</v>
       </c>
       <c r="E589" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>1454</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C590" t="s">
         <v>7</v>
@@ -15115,18 +15113,18 @@
         <v>7</v>
       </c>
       <c r="E590" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>1455</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C591" t="s">
         <v>7</v>
@@ -15135,18 +15133,18 @@
         <v>7</v>
       </c>
       <c r="E591" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
         <v>1456</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C592" t="s">
         <v>7</v>
@@ -15155,18 +15153,18 @@
         <v>7</v>
       </c>
       <c r="E592" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>1457</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C593" t="s">
         <v>7</v>
@@ -15175,18 +15173,18 @@
         <v>7</v>
       </c>
       <c r="E593" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>1458</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C594" t="s">
         <v>7</v>
@@ -15195,18 +15193,18 @@
         <v>7</v>
       </c>
       <c r="E594" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>1459</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C595" t="s">
         <v>7</v>
@@ -15215,30 +15213,10 @@
         <v>7</v>
       </c>
       <c r="E595" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A596" s="5" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B596" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C596" t="s">
-        <v>7</v>
-      </c>
-      <c r="D596" t="s">
-        <v>7</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F596" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
